--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8C6024-B02E-43F6-B4B8-BB98D9CF10BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -327,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -346,18 +352,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -372,23 +381,27 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -401,22 +414,26 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -430,6 +447,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -624,13 +642,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -922,25 +943,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="99.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -952,7 +973,7 @@
       <c r="G1" s="27"/>
       <c r="H1" s="28"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -978,7 +999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +1023,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -1026,7 +1047,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -1048,7 +1069,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -1070,7 +1091,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
         <v>33</v>
@@ -1092,7 +1113,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="15"/>
       <c r="B8" s="19" t="s">
         <v>61</v>
@@ -1112,7 +1133,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -1126,7 +1147,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="15"/>
       <c r="B10" s="19" t="s">
         <v>63</v>
@@ -1142,7 +1163,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -1156,7 +1177,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -1170,7 +1191,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -1184,7 +1205,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -1198,7 +1219,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -1212,7 +1233,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -1226,7 +1247,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -1240,7 +1261,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -1254,7 +1275,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -1268,7 +1289,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -1282,7 +1303,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -1296,7 +1317,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -1310,7 +1331,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -1324,7 +1345,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -1338,7 +1359,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -1352,7 +1373,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -1366,7 +1387,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -1380,7 +1401,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -1394,7 +1415,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -1408,7 +1429,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -1422,7 +1443,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -1436,7 +1457,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -1450,7 +1471,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -1466,7 +1487,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -1480,7 +1501,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="14"/>
       <c r="B35" s="19" t="s">
         <v>53</v>
@@ -1494,7 +1515,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="14"/>
       <c r="B36" s="19" t="s">
         <v>54</v>
@@ -1508,7 +1529,7 @@
       </c>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="16.5">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="14"/>
       <c r="B37" s="19" t="s">
         <v>55</v>
@@ -1522,7 +1543,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="14"/>
       <c r="B38" s="19" t="s">
         <v>57</v>
@@ -1536,7 +1557,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -1550,7 +1571,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -1564,7 +1585,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="19"/>
       <c r="B41" s="19" t="s">
         <v>52</v>
@@ -1578,7 +1599,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="19"/>
       <c r="B42" s="19" t="s">
         <v>57</v>
@@ -1592,7 +1613,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1627,7 @@
       </c>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="16.5">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="17"/>
       <c r="B44" s="20"/>
       <c r="C44" s="21"/>
@@ -1616,7 +1637,7 @@
       <c r="G44" s="23"/>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:8" ht="16.5">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="17"/>
       <c r="B45" s="20"/>
       <c r="C45" s="21"/>
@@ -1626,7 +1647,7 @@
       <c r="G45" s="23"/>
       <c r="H45" s="24"/>
     </row>
-    <row r="46" spans="1:8" ht="16.5">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="17"/>
       <c r="B46" s="20"/>
       <c r="C46" s="21"/>
@@ -1636,7 +1657,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="24"/>
     </row>
-    <row r="47" spans="1:8" ht="16.5">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="17"/>
       <c r="B47" s="20"/>
       <c r="C47" s="21"/>
@@ -1646,7 +1667,7 @@
       <c r="G47" s="23"/>
       <c r="H47" s="24"/>
     </row>
-    <row r="48" spans="1:8" ht="16.5">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="17"/>
       <c r="B48" s="20"/>
       <c r="C48" s="21"/>
@@ -1656,7 +1677,7 @@
       <c r="G48" s="23"/>
       <c r="H48" s="24"/>
     </row>
-    <row r="49" spans="1:8" ht="16.5">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="17"/>
       <c r="B49" s="20"/>
       <c r="C49" s="21"/>
@@ -1666,7 +1687,7 @@
       <c r="G49" s="23"/>
       <c r="H49" s="24"/>
     </row>
-    <row r="50" spans="1:8" ht="16.5">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="17"/>
       <c r="B50" s="20"/>
       <c r="C50" s="21"/>
@@ -1676,7 +1697,7 @@
       <c r="G50" s="23"/>
       <c r="H50" s="24"/>
     </row>
-    <row r="51" spans="1:8" ht="16.5">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="17"/>
       <c r="B51" s="20"/>
       <c r="C51" s="21"/>
@@ -1686,7 +1707,7 @@
       <c r="G51" s="23"/>
       <c r="H51" s="24"/>
     </row>
-    <row r="52" spans="1:8" ht="16.5">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="17"/>
       <c r="B52" s="20"/>
       <c r="C52" s="21"/>
@@ -1707,25 +1728,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -1763,7 +1784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -1787,7 +1808,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -1803,7 +1824,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -1817,7 +1838,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -1859,7 +1880,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -1887,7 +1908,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -1901,7 +1922,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -1915,7 +1936,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -1929,7 +1950,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -1943,7 +1964,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -1957,7 +1978,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -1971,7 +1992,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -1985,7 +2006,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -1999,7 +2020,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -2013,7 +2034,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -2027,7 +2048,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -2041,7 +2062,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -2055,7 +2076,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -2069,7 +2090,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -2083,7 +2104,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -2097,7 +2118,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -2111,7 +2132,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -2125,7 +2146,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -2139,7 +2160,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -2153,7 +2174,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -2167,7 +2188,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -2181,7 +2202,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -2195,7 +2216,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -2211,7 +2232,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -2281,7 +2302,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -2295,7 +2316,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -2337,7 +2358,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -2362,26 +2383,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -2419,7 +2440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -2443,7 +2464,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -2467,7 +2488,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -2483,7 +2504,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -2525,7 +2546,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -2553,7 +2574,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -2567,7 +2588,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -2581,7 +2602,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -2595,7 +2616,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -2609,7 +2630,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -2623,7 +2644,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -2637,7 +2658,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -2651,7 +2672,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -2665,7 +2686,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -2679,7 +2700,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -2693,7 +2714,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -2707,7 +2728,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -2721,7 +2742,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -2735,7 +2756,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -2749,7 +2770,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -2763,7 +2784,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -2777,7 +2798,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -2791,7 +2812,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -2805,7 +2826,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -2819,7 +2840,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -2833,7 +2854,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -2847,7 +2868,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -2861,7 +2882,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -2877,7 +2898,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -2947,7 +2968,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -2961,7 +2982,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -3003,7 +3024,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -3028,25 +3049,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -3084,7 +3105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -3108,7 +3129,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -3132,7 +3153,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -3148,7 +3169,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -3190,7 +3211,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -3218,7 +3239,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -3232,7 +3253,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -3246,7 +3267,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -3260,7 +3281,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -3274,7 +3295,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -3288,7 +3309,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -3302,7 +3323,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -3316,7 +3337,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -3330,7 +3351,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -3344,7 +3365,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -3358,7 +3379,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -3372,7 +3393,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -3386,7 +3407,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -3400,7 +3421,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -3414,7 +3435,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -3428,7 +3449,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -3442,7 +3463,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -3456,7 +3477,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -3470,7 +3491,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -3484,7 +3505,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -3498,7 +3519,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -3512,7 +3533,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -3526,7 +3547,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -3542,7 +3563,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -3612,7 +3633,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -3626,7 +3647,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -3668,7 +3689,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -3693,25 +3714,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -3749,7 +3770,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -3773,7 +3794,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -3789,7 +3810,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -3803,7 +3824,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -3845,7 +3866,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -3873,7 +3894,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -3887,7 +3908,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -3901,7 +3922,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -3915,7 +3936,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -3929,7 +3950,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -3943,7 +3964,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -3957,7 +3978,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -3971,7 +3992,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -3985,7 +4006,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -3999,7 +4020,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -4013,7 +4034,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -4027,7 +4048,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -4041,7 +4062,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -4055,7 +4076,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -4069,7 +4090,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -4083,7 +4104,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -4097,7 +4118,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -4111,7 +4132,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -4125,7 +4146,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -4139,7 +4160,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -4153,7 +4174,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -4167,7 +4188,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -4181,7 +4202,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -4197,7 +4218,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -4267,7 +4288,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -4281,7 +4302,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -4323,7 +4344,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -4347,25 +4368,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="21.25" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -4403,7 +4424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -4427,7 +4448,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -4443,7 +4464,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -4457,7 +4478,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -4471,7 +4492,7 @@
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="15"/>
       <c r="B7" s="19" t="s">
         <v>33</v>
@@ -4485,7 +4506,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="15"/>
       <c r="B8" s="19" t="s">
         <v>61</v>
@@ -4499,7 +4520,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -4527,7 +4548,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -4541,7 +4562,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -4555,7 +4576,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -4569,7 +4590,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -4583,7 +4604,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -4597,7 +4618,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -4611,7 +4632,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -4625,7 +4646,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -4639,7 +4660,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -4653,7 +4674,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -4667,7 +4688,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -4681,7 +4702,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -4695,7 +4716,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -4709,7 +4730,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -4723,7 +4744,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -4737,7 +4758,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -4751,7 +4772,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -4765,7 +4786,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -4779,7 +4800,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -4793,7 +4814,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -4807,7 +4828,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -4821,7 +4842,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -4835,7 +4856,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -4851,7 +4872,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -4865,7 +4886,7 @@
       </c>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="14"/>
       <c r="B35" s="19" t="s">
         <v>53</v>
@@ -4879,7 +4900,7 @@
       </c>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="14"/>
       <c r="B36" s="19" t="s">
         <v>54</v>
@@ -4907,7 +4928,7 @@
       </c>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="14"/>
       <c r="B38" s="19" t="s">
         <v>57</v>
@@ -4921,7 +4942,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -4935,7 +4956,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -4949,7 +4970,7 @@
       </c>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="19"/>
       <c r="B41" s="19" t="s">
         <v>52</v>
@@ -4963,7 +4984,7 @@
       </c>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="19"/>
       <c r="B42" s="19" t="s">
         <v>57</v>
@@ -4977,7 +4998,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -5002,25 +5023,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -5058,7 +5079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -5082,7 +5103,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -5098,7 +5119,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -5112,7 +5133,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -5154,7 +5175,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -5182,7 +5203,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -5196,7 +5217,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -5210,7 +5231,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -5224,7 +5245,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -5238,7 +5259,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -5252,7 +5273,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -5266,7 +5287,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -5280,7 +5301,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -5294,7 +5315,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -5308,7 +5329,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -5322,7 +5343,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -5336,7 +5357,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -5350,7 +5371,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -5364,7 +5385,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -5378,7 +5399,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -5392,7 +5413,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -5406,7 +5427,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -5420,7 +5441,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -5434,7 +5455,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -5448,7 +5469,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -5462,7 +5483,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -5476,7 +5497,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -5490,7 +5511,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -5506,7 +5527,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -5576,7 +5597,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -5590,7 +5611,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -5632,7 +5653,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -5657,25 +5678,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -5713,7 +5734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -5737,23 +5758,31 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="4">
+        <v>43638</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43638</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.875</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -5767,7 +5796,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -5809,7 +5838,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -5837,7 +5866,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -5851,7 +5880,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -5865,7 +5894,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -5879,7 +5908,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -5893,7 +5922,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -5907,7 +5936,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -5921,7 +5950,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -5935,7 +5964,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -5949,7 +5978,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -5963,7 +5992,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -5977,7 +6006,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -5991,7 +6020,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -6005,7 +6034,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -6019,7 +6048,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -6033,7 +6062,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -6047,7 +6076,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -6061,7 +6090,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -6075,7 +6104,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -6089,7 +6118,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -6103,7 +6132,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -6117,7 +6146,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -6131,7 +6160,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -6145,7 +6174,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -6161,7 +6190,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -6231,7 +6260,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -6245,7 +6274,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -6287,7 +6316,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -6311,25 +6340,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -6367,7 +6396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -6391,7 +6420,7 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -6407,7 +6436,7 @@
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -6421,7 +6450,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -6463,7 +6492,7 @@
       </c>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -6491,7 +6520,7 @@
       </c>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -6505,7 +6534,7 @@
       </c>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -6519,7 +6548,7 @@
       </c>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -6533,7 +6562,7 @@
       </c>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -6547,7 +6576,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -6561,7 +6590,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -6575,7 +6604,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -6589,7 +6618,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -6603,7 +6632,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -6617,7 +6646,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -6631,7 +6660,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -6645,7 +6674,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -6659,7 +6688,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -6673,7 +6702,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -6687,7 +6716,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -6701,7 +6730,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -6715,7 +6744,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -6729,7 +6758,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -6743,7 +6772,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -6757,7 +6786,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -6771,7 +6800,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -6785,7 +6814,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -6799,7 +6828,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -6815,7 +6844,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -6885,7 +6914,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -6899,7 +6928,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -6941,7 +6970,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>
@@ -6965,32 +6994,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.25" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.21875" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="38.109375" customWidth="1"/>
+    <col min="28" max="28" width="71.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="32.4">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -7062,7 +7091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16.5">
+    <row r="3" spans="1:28" ht="15.6">
       <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
@@ -7110,7 +7139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16.5">
+    <row r="4" spans="1:28" ht="15.6">
       <c r="A4" s="14" t="s">
         <v>59</v>
       </c>
@@ -7140,7 +7169,7 @@
       </c>
       <c r="AB4" s="7"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="24">
       <c r="A5" s="12"/>
       <c r="B5" s="19" t="s">
         <v>31</v>
@@ -7170,7 +7199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16.5">
+    <row r="6" spans="1:28" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="19" t="s">
         <v>32</v>
@@ -7266,7 +7295,7 @@
       </c>
       <c r="AB8" s="7"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9" s="15"/>
       <c r="B9" s="19" t="s">
         <v>62</v>
@@ -7322,7 +7351,7 @@
       </c>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="24">
       <c r="A11" s="15"/>
       <c r="B11" s="19" t="s">
         <v>34</v>
@@ -7350,7 +7379,7 @@
       </c>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:28" ht="16.5">
+    <row r="12" spans="1:28" ht="15.6">
       <c r="A12" s="15"/>
       <c r="B12" s="19" t="s">
         <v>64</v>
@@ -7378,7 +7407,7 @@
       </c>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:28" ht="16.5">
+    <row r="13" spans="1:28" ht="15.6">
       <c r="A13" s="15"/>
       <c r="B13" s="19" t="s">
         <v>65</v>
@@ -7410,7 +7439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16.5">
+    <row r="14" spans="1:28" ht="15.6">
       <c r="A14" s="15"/>
       <c r="B14" s="19" t="s">
         <v>35</v>
@@ -7424,7 +7453,7 @@
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="24">
       <c r="A15" s="15"/>
       <c r="B15" s="19" t="s">
         <v>36</v>
@@ -7438,7 +7467,7 @@
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:28" ht="16.5">
+    <row r="16" spans="1:28" ht="15.6">
       <c r="A16" s="15"/>
       <c r="B16" s="19" t="s">
         <v>67</v>
@@ -7452,7 +7481,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="15"/>
       <c r="B17" s="19" t="s">
         <v>66</v>
@@ -7466,7 +7495,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="15"/>
       <c r="B18" s="19" t="s">
         <v>37</v>
@@ -7480,7 +7509,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="15"/>
       <c r="B19" s="19" t="s">
         <v>38</v>
@@ -7494,7 +7523,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="15"/>
       <c r="B20" s="19" t="s">
         <v>68</v>
@@ -7508,7 +7537,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="15"/>
       <c r="B21" s="19" t="s">
         <v>69</v>
@@ -7522,7 +7551,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="15"/>
       <c r="B22" s="19" t="s">
         <v>39</v>
@@ -7536,7 +7565,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="16"/>
       <c r="B23" s="19" t="s">
         <v>40</v>
@@ -7550,7 +7579,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="15"/>
       <c r="B24" s="19" t="s">
         <v>71</v>
@@ -7564,7 +7593,7 @@
       </c>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="15"/>
       <c r="B25" s="19" t="s">
         <v>70</v>
@@ -7578,7 +7607,7 @@
       </c>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="15"/>
       <c r="B26" s="19" t="s">
         <v>41</v>
@@ -7592,7 +7621,7 @@
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="15"/>
       <c r="B27" s="19" t="s">
         <v>42</v>
@@ -7606,7 +7635,7 @@
       </c>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="15"/>
       <c r="B28" s="19" t="s">
         <v>43</v>
@@ -7620,7 +7649,7 @@
       </c>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="13"/>
       <c r="B29" s="18" t="s">
         <v>44</v>
@@ -7634,7 +7663,7 @@
       </c>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="16.5">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="15"/>
       <c r="B30" s="19" t="s">
         <v>45</v>
@@ -7648,7 +7677,7 @@
       </c>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="16.5">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="15"/>
       <c r="B31" s="19" t="s">
         <v>46</v>
@@ -7662,7 +7691,7 @@
       </c>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="16.5">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="15"/>
       <c r="B32" s="19" t="s">
         <v>47</v>
@@ -7676,7 +7705,7 @@
       </c>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="16.5">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="17" t="s">
         <v>48</v>
       </c>
@@ -7692,7 +7721,7 @@
       </c>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="17"/>
       <c r="B34" s="19" t="s">
         <v>50</v>
@@ -7762,7 +7791,7 @@
       </c>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="14"/>
       <c r="B39" s="19" t="s">
         <v>58</v>
@@ -7776,7 +7805,7 @@
       </c>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="19"/>
       <c r="B40" s="19" t="s">
         <v>51</v>
@@ -7818,7 +7847,7 @@
       </c>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="16.5">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="17" t="s">
         <v>24</v>
       </c>

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C793DE-5E79-465D-8AF7-50CE2C483E72}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2EE04-1DF7-4B12-8C81-9C91E8FEE6DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="78">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -282,6 +282,10 @@
     <t>已完成</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -480,7 +484,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,6 +571,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2981,8 +2988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3078,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -3091,8 +3098,12 @@
         <v>43639</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.9</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
@@ -3103,12 +3114,20 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="4">
+        <v>43640</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43640</v>
+      </c>
+      <c r="E6" s="29">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -3646,7 +3665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2EE04-1DF7-4B12-8C81-9C91E8FEE6DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0ADF45-4E26-4433-A5BF-9C20C66CDBB3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -554,6 +554,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,9 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -898,16 +898,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
@@ -1683,16 +1683,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2322,8 +2322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2339,16 +2339,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -2420,7 +2420,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -2433,8 +2433,12 @@
         <v>43639</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.9</v>
+      </c>
       <c r="G5" s="7" t="s">
         <v>17</v>
       </c>
@@ -2445,12 +2449,20 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="4">
+        <v>43640</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43640</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8"/>
     </row>
@@ -2988,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3004,16 +3016,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -3120,7 +3132,7 @@
       <c r="D6" s="4">
         <v>43640</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="23">
         <v>0.875</v>
       </c>
       <c r="F6" s="6">
@@ -3681,16 +3693,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -4349,16 +4361,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -5012,16 +5024,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -5667,16 +5679,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6329,16 +6341,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6990,26 +7002,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="33">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="25"/>
-      <c r="U1" s="28" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="U1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="26"/>
     </row>
     <row r="2" spans="1:28" ht="27" customHeight="1">
       <c r="A2" s="1" t="s">

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="11595" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="21030" windowHeight="11595" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -275,8 +275,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -354,11 +354,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -368,9 +366,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,52 +455,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,38 +476,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,9 +494,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -531,67 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,97 +549,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +573,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,11 +779,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,39 +848,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -850,180 +874,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1461,7 +1461,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2903,7 +2903,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G6"/>
+      <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6912,7 +6912,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7018,10 +7018,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7">
-        <v>43639</v>
+        <v>43638</v>
       </c>
       <c r="D5" s="7">
-        <v>43639</v>
+        <v>43640</v>
       </c>
       <c r="E5" s="8">
         <v>0.875</v>

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -275,12 +275,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -319,11 +319,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,37 +349,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,30 +364,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,23 +408,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,7 +448,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,11 +469,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,25 +526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,19 +538,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,19 +610,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,67 +670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,19 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,30 +782,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -831,17 +811,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,11 +840,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,151 +874,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
@@ -1067,28 +1062,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6912,7 +6907,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7005,7 +7000,7 @@
         <v>0.875</v>
       </c>
       <c r="F4" s="9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>11</v>
@@ -7018,10 +7013,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7">
-        <v>43638</v>
+        <v>43639</v>
       </c>
       <c r="D5" s="7">
-        <v>43640</v>
+        <v>43639</v>
       </c>
       <c r="E5" s="8">
         <v>0.875</v>
@@ -7039,7 +7034,9 @@
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <v>43640</v>
+      </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -275,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -352,7 +352,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,20 +366,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,25 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,6 +407,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -439,9 +431,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,30 +455,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,7 +491,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,7 +526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,13 +568,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,157 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,30 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -807,15 +783,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,6 +807,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,6 +826,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -874,148 +874,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
@@ -6907,7 +6907,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7003,7 +7003,7 @@
         <v>0.5</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" s="11"/>
     </row>
@@ -7013,10 +7013,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7">
-        <v>43639</v>
+        <v>43638</v>
       </c>
       <c r="D5" s="7">
-        <v>43639</v>
+        <v>43640</v>
       </c>
       <c r="E5" s="8">
         <v>0.875</v>
@@ -7034,9 +7034,7 @@
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7">
-        <v>43640</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="9"/>

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="11595" activeTab="7"/>
+    <workbookView windowWidth="9345" windowHeight="3570" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="77">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -199,6 +199,9 @@
     <t>唯一键不知道如何设置（已解决）</t>
   </si>
   <si>
+    <t>已完 成</t>
+  </si>
+  <si>
     <t>进度控制表-文件共享系统的设计与实现</t>
   </si>
   <si>
@@ -276,9 +279,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -356,6 +359,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -370,14 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -385,8 +395,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +412,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,41 +450,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,31 +465,11 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -498,10 +481,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,42 +529,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,7 +541,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,85 +631,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,13 +685,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +775,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -789,11 +801,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -807,10 +832,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -830,45 +872,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -877,10 +880,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,133 +892,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
@@ -4923,8 +4926,8 @@
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -5026,15 +5029,17 @@
       <c r="C5" s="7">
         <v>43640</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>43641</v>
+      </c>
       <c r="E5" s="8">
         <v>0.875</v>
       </c>
       <c r="F5" s="9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -5043,12 +5048,20 @@
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="7">
+        <v>43641</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43641</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
       <c r="G6" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H6" s="11"/>
     </row>
@@ -6906,7 +6919,7 @@
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7611,7 +7624,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -7707,7 +7720,7 @@
         <v>43592</v>
       </c>
       <c r="Y3" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z3" s="9">
         <v>1</v>
@@ -7716,7 +7729,7 @@
         <v>17</v>
       </c>
       <c r="AB3" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:28">
@@ -7736,7 +7749,7 @@
       <c r="H4" s="11"/>
       <c r="U4" s="18"/>
       <c r="V4" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
@@ -7764,7 +7777,7 @@
       <c r="H5" s="11"/>
       <c r="U5" s="18"/>
       <c r="V5" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
@@ -7776,7 +7789,7 @@
         <v>17</v>
       </c>
       <c r="AB5" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:28">
@@ -7793,10 +7806,10 @@
       </c>
       <c r="H6" s="11"/>
       <c r="U6" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
@@ -7808,7 +7821,7 @@
         <v>17</v>
       </c>
       <c r="AB6" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" ht="24" spans="1:28">
@@ -7826,7 +7839,7 @@
       <c r="H7" s="11"/>
       <c r="U7" s="19"/>
       <c r="V7" s="17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="W7" s="7">
         <v>43592</v>
@@ -7835,7 +7848,7 @@
         <v>43592</v>
       </c>
       <c r="Y7" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Z7" s="9">
         <v>1</v>
@@ -7859,10 +7872,10 @@
       </c>
       <c r="H8" s="11"/>
       <c r="U8" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V8" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
@@ -7890,7 +7903,7 @@
       <c r="H9" s="11"/>
       <c r="U9" s="12"/>
       <c r="V9" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
@@ -7918,7 +7931,7 @@
       <c r="H10" s="11"/>
       <c r="U10" s="20"/>
       <c r="V10" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
@@ -7946,7 +7959,7 @@
       <c r="H11" s="11"/>
       <c r="U11" s="5"/>
       <c r="V11" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
@@ -7974,7 +7987,7 @@
       <c r="H12" s="11"/>
       <c r="U12" s="20"/>
       <c r="V12" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
@@ -8004,7 +8017,7 @@
         <v>55</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
@@ -8016,7 +8029,7 @@
         <v>17</v>
       </c>
       <c r="AB13" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:8">

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XJT17\Desktop\xutao\hgkj_01\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081622B8-A009-4C50-A9D9-74A26E37E63B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9345" windowHeight="3570"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="79">
   <si>
     <t>进度表-旅游网的设计与实现</t>
   </si>
@@ -255,6 +261,7 @@
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
@@ -264,6 +271,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>周末两天要进行优化测试以及一些功能的补充</t>
@@ -277,11 +285,15 @@
     <t>已完成</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -300,41 +312,48 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="30"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -342,28 +361,33 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="49"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -535,13 +559,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -833,25 +860,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="30.375" customWidth="1"/>
-    <col min="8" max="8" width="99.875" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="8" max="8" width="99.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -863,7 +890,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="26"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="28">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1628,25 +1655,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1779,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -1766,7 +1793,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -1780,7 +1807,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -1808,7 +1835,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -1864,7 +1891,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -1920,7 +1947,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -1976,7 +2003,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -2146,7 +2173,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -2160,7 +2187,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -2174,7 +2201,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -2188,7 +2215,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -2202,7 +2229,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -2216,7 +2243,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -2230,7 +2257,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -2244,7 +2271,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -2278,31 +2305,31 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -2430,7 +2457,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -2444,7 +2471,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -2458,7 +2485,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -2486,7 +2513,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -2542,7 +2569,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -2598,7 +2625,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -2654,7 +2681,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -2824,7 +2851,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -2838,7 +2865,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -2852,7 +2879,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -2866,7 +2893,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -2880,7 +2907,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -2894,7 +2921,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -2908,7 +2935,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -2922,7 +2949,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -2961,25 +2988,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3134,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -3121,7 +3148,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3135,7 +3162,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -3163,7 +3190,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -3219,7 +3246,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -3275,7 +3302,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -3331,7 +3358,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -3501,7 +3528,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -3515,7 +3542,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -3529,7 +3556,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -3543,7 +3570,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -3557,7 +3584,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -3571,7 +3598,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -3585,7 +3612,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -3599,7 +3626,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -3638,25 +3665,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -3750,15 +3777,17 @@
       <c r="C5" s="4">
         <v>43640</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>43641</v>
+      </c>
       <c r="E5" s="5">
         <v>0.875</v>
       </c>
       <c r="F5" s="6">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -3767,30 +3796,44 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D6" s="4">
+        <v>43641</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4">
+        <v>43641</v>
+      </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.6</v>
+      </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -3804,7 +3847,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -3832,7 +3875,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -3888,7 +3931,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -3944,7 +3987,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -4000,7 +4043,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -4170,7 +4213,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -4184,7 +4227,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -4198,7 +4241,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -4212,7 +4255,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -4226,7 +4269,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -4240,7 +4283,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -4254,7 +4297,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -4268,7 +4311,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -4306,25 +4349,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="21.125" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -4462,7 +4505,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -4842,7 +4885,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="16.5">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -4856,7 +4899,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="16.5">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -4870,7 +4913,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -4884,7 +4927,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="16.5">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -4926,7 +4969,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="16.5">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -4940,7 +4983,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="16.5">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -4979,25 +5022,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5146,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5117,7 +5160,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5131,7 +5174,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -5159,7 +5202,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -5215,7 +5258,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -5271,7 +5314,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -5327,7 +5370,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -5497,7 +5540,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -5511,7 +5554,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -5525,7 +5568,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -5539,7 +5582,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -5553,7 +5596,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -5567,7 +5610,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -5581,7 +5624,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -5595,7 +5638,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -5634,25 +5677,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -5766,7 +5809,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -5780,7 +5823,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -5794,7 +5837,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -5822,7 +5865,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -5878,7 +5921,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -5934,7 +5977,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -5990,7 +6033,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -6160,7 +6203,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -6174,7 +6217,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -6188,7 +6231,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -6202,7 +6245,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -6216,7 +6259,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -6230,7 +6273,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -6244,7 +6287,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -6258,7 +6301,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -6296,25 +6339,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33.75">
+    <row r="1" spans="1:8" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -6436,7 +6479,7 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="24">
+    <row r="7" spans="1:8" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -6450,7 +6493,7 @@
       </c>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="24">
+    <row r="8" spans="1:8" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -6464,7 +6507,7 @@
       </c>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -6492,7 +6535,7 @@
       </c>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -6548,7 +6591,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -6604,7 +6647,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -6660,7 +6703,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -6830,7 +6873,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -6844,7 +6887,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -6858,7 +6901,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -6872,7 +6915,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -6886,7 +6929,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -6900,7 +6943,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -6914,7 +6957,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -6928,7 +6971,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>
@@ -6966,32 +7009,32 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.36328125" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="38.125" customWidth="1"/>
-    <col min="8" max="8" width="131.125" customWidth="1"/>
+    <col min="7" max="7" width="38.08984375" customWidth="1"/>
+    <col min="8" max="8" width="131.08984375" customWidth="1"/>
     <col min="22" max="22" width="27" customWidth="1"/>
-    <col min="23" max="23" width="17.125" customWidth="1"/>
-    <col min="24" max="24" width="18.5" customWidth="1"/>
-    <col min="25" max="25" width="26.375" customWidth="1"/>
-    <col min="26" max="26" width="21.875" customWidth="1"/>
-    <col min="27" max="27" width="38.125" customWidth="1"/>
-    <col min="28" max="28" width="71.75" customWidth="1"/>
+    <col min="23" max="23" width="17.08984375" customWidth="1"/>
+    <col min="24" max="24" width="18.453125" customWidth="1"/>
+    <col min="25" max="25" width="26.36328125" customWidth="1"/>
+    <col min="26" max="26" width="21.90625" customWidth="1"/>
+    <col min="27" max="27" width="38.08984375" customWidth="1"/>
+    <col min="28" max="28" width="71.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="33.75">
+    <row r="1" spans="1:28" ht="33">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7141,7 +7184,7 @@
       </c>
       <c r="AB4" s="8"/>
     </row>
-    <row r="5" spans="1:28" ht="16.5">
+    <row r="5" spans="1:28" ht="26">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -7203,7 +7246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="24">
+    <row r="7" spans="1:28" ht="26">
       <c r="A7" s="9"/>
       <c r="B7" s="3" t="s">
         <v>16</v>
@@ -7237,7 +7280,7 @@
       </c>
       <c r="AB7" s="8"/>
     </row>
-    <row r="8" spans="1:28" ht="24">
+    <row r="8" spans="1:28" ht="26">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
@@ -7267,7 +7310,7 @@
       </c>
       <c r="AB8" s="8"/>
     </row>
-    <row r="9" spans="1:28" ht="16.5">
+    <row r="9" spans="1:28" ht="26">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
         <v>19</v>
@@ -7323,7 +7366,7 @@
       </c>
       <c r="AB10" s="8"/>
     </row>
-    <row r="11" spans="1:28" ht="16.5">
+    <row r="11" spans="1:28" ht="26">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
         <v>22</v>
@@ -7425,7 +7468,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:28" ht="16.5">
+    <row r="15" spans="1:28" ht="26">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
         <v>26</v>
@@ -7481,7 +7524,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="26">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>30</v>
@@ -7537,7 +7580,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="26">
       <c r="A23" s="4"/>
       <c r="B23" s="3" t="s">
         <v>34</v>
@@ -7707,7 +7750,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="24">
+    <row r="35" spans="1:8" ht="26">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
         <v>47</v>
@@ -7721,7 +7764,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="24">
+    <row r="36" spans="1:8" ht="26">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
         <v>48</v>
@@ -7735,7 +7778,7 @@
       </c>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" ht="24">
+    <row r="37" spans="1:8" ht="26">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
         <v>49</v>
@@ -7749,7 +7792,7 @@
       </c>
       <c r="H37" s="8"/>
     </row>
-    <row r="38" spans="1:8" ht="24">
+    <row r="38" spans="1:8" ht="26">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
         <v>50</v>
@@ -7763,7 +7806,7 @@
       </c>
       <c r="H38" s="8"/>
     </row>
-    <row r="39" spans="1:8" ht="16.5">
+    <row r="39" spans="1:8" ht="26">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>51</v>
@@ -7777,7 +7820,7 @@
       </c>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:8" ht="16.5">
+    <row r="40" spans="1:8" ht="26">
       <c r="A40" s="3"/>
       <c r="B40" s="3" t="s">
         <v>52</v>
@@ -7791,7 +7834,7 @@
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="24">
+    <row r="41" spans="1:8" ht="26">
       <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>53</v>
@@ -7805,7 +7848,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="24">
+    <row r="42" spans="1:8" ht="26">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>50</v>

--- a/旅游网—开发一梁卫鸿 .xlsx
+++ b/旅游网—开发一梁卫鸿 .xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojjplus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58292E96-BE72-4C8D-8D52-271B8AE35FE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="梁卫鸿" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="罗凤海" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="张坤立" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="徐锦涛" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="马清阳" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="孙凡舒" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="程俊杰" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="张文旺" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="熊和亮" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="华柳盛" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="梁卫鸿" sheetId="1" r:id="rId1"/>
+    <sheet name="罗凤海" sheetId="2" r:id="rId2"/>
+    <sheet name="张坤立" sheetId="3" r:id="rId3"/>
+    <sheet name="徐锦涛" sheetId="4" r:id="rId4"/>
+    <sheet name="马清阳" sheetId="5" r:id="rId5"/>
+    <sheet name="孙凡舒" sheetId="6" r:id="rId6"/>
+    <sheet name="程俊杰" sheetId="7" r:id="rId7"/>
+    <sheet name="张文旺" sheetId="8" r:id="rId8"/>
+    <sheet name="熊和亮" sheetId="9" r:id="rId9"/>
+    <sheet name="华柳盛" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,232 +36,232 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="77">
   <si>
-    <t xml:space="preserve">进度表-旅游网的设计与实现</t>
+    <t>进度表-旅游网的设计与实现</t>
   </si>
   <si>
-    <t xml:space="preserve">整体模块</t>
+    <t>整体模块</t>
   </si>
   <si>
-    <t xml:space="preserve">具体子模块</t>
+    <t>具体子模块</t>
   </si>
   <si>
-    <t xml:space="preserve">计划完成时间</t>
+    <t>计划完成时间</t>
   </si>
   <si>
-    <t xml:space="preserve">实际完成时间</t>
+    <t>实际完成时间</t>
   </si>
   <si>
-    <t xml:space="preserve">进度检查时间</t>
+    <t>进度检查时间</t>
   </si>
   <si>
-    <t xml:space="preserve">进度百分比</t>
+    <t>进度百分比</t>
   </si>
   <si>
-    <t xml:space="preserve">进度说明</t>
+    <t>进度说明</t>
   </si>
   <si>
-    <t xml:space="preserve">备注</t>
+    <t>备注</t>
   </si>
   <si>
-    <t xml:space="preserve">准备工作</t>
+    <t>准备工作</t>
   </si>
   <si>
-    <t xml:space="preserve">数据库建立</t>
+    <t>数据库建立</t>
   </si>
   <si>
-    <t xml:space="preserve">已完成</t>
+    <t>已完成</t>
   </si>
   <si>
-    <t xml:space="preserve">普通用户</t>
+    <t>普通用户</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-查询所有</t>
+    <t>首页-查询所有</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-登录</t>
+    <t>首页-登录</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-注册</t>
+    <t>首页-注册</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-超链接功能的实现</t>
+    <t>首页-超链接功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">404，映射错误（以解决）</t>
+    <t>404，映射错误（以解决）</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-加入购物车功能的实现</t>
+    <t>首页-加入购物车功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">未完成</t>
+    <t>未完成</t>
   </si>
   <si>
-    <t xml:space="preserve">首页-结算功能的实现</t>
+    <t>首页-结算功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-查询</t>
+    <t>境内游-查询</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-超链接的实现</t>
+    <t>境内游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-加入购物车</t>
+    <t>境内游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-结算功能</t>
+    <t>境内游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">境内游-分页</t>
+    <t>境内游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-超链接的实现</t>
+    <t>境外游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-加入购物车</t>
+    <t>境外游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-结算功能</t>
+    <t>境外游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">境外游-分页</t>
+    <t>境外游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-超链接的实现</t>
+    <t>热门游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-加入购物车</t>
+    <t>热门游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-结算功能</t>
+    <t>热门游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">热门游-分页</t>
+    <t>热门游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-超链接的实现</t>
+    <t>团购游-超链接的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-加入购物车</t>
+    <t>团购游-加入购物车</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-结算功能</t>
+    <t>团购游-结算功能</t>
   </si>
   <si>
-    <t xml:space="preserve">团购游-分页</t>
+    <t>团购游-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">购物车-分页</t>
+    <t>购物车-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">购物车-删除</t>
+    <t>购物车-删除</t>
   </si>
   <si>
-    <t xml:space="preserve">购物车-下单</t>
+    <t>购物车-下单</t>
   </si>
   <si>
-    <t xml:space="preserve">填写订单</t>
+    <t>填写订单</t>
   </si>
   <si>
-    <t xml:space="preserve">确认订单</t>
+    <t>确认订单</t>
   </si>
   <si>
-    <t xml:space="preserve">结算</t>
+    <t>结算</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员</t>
+    <t>管理员</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-登录</t>
+    <t>管理员-登录</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-退出</t>
+    <t>管理员-退出</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-添加旅游路线类型</t>
+    <t>管理员-添加旅游路线类型</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线类型</t>
+    <t>管理员-查询旅游路线类型</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线类型-分页</t>
+    <t>管理员-查询旅游路线类型-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-修改旅游路线类型</t>
+    <t>管理员-修改旅游路线类型</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-添加旅游路线</t>
+    <t>管理员-添加旅游路线</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线</t>
+    <t>管理员-查询旅游路线</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员-查询旅游路线-分页</t>
+    <t>管理员-查询旅游路线-分页</t>
   </si>
   <si>
-    <t xml:space="preserve">后期优化</t>
+    <t>后期优化</t>
   </si>
   <si>
-    <t xml:space="preserve">2019/6.24</t>
+    <t>2019/6.24</t>
   </si>
   <si>
-    <t xml:space="preserve">唯一键不知道如何设置（已解决）</t>
+    <t>唯一键不知道如何设置（已解决）</t>
   </si>
   <si>
-    <t xml:space="preserve">已完 成</t>
+    <t>已完 成</t>
   </si>
   <si>
-    <t xml:space="preserve">进度控制表-文件共享系统的设计与实现</t>
+    <t>进度控制表-文件共享系统的设计与实现</t>
   </si>
   <si>
-    <t xml:space="preserve">21点</t>
+    <t>21点</t>
   </si>
   <si>
-    <t xml:space="preserve">外键未设</t>
+    <t>外键未设</t>
   </si>
   <si>
-    <t xml:space="preserve">需求分析说明书</t>
+    <t>需求分析说明书</t>
   </si>
   <si>
-    <t xml:space="preserve">系统设计说明书（含数据库词典）</t>
+    <t>系统设计说明书（含数据库词典）</t>
   </si>
   <si>
-    <t xml:space="preserve">没什么问题</t>
+    <t>没什么问题</t>
   </si>
   <si>
-    <t xml:space="preserve">前台</t>
+    <t>前台</t>
   </si>
   <si>
-    <t xml:space="preserve">登录界面</t>
+    <t>登录界面</t>
   </si>
   <si>
-    <t xml:space="preserve">图片加载不出来（已解决）</t>
+    <t>图片加载不出来（已解决）</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面界面</t>
+    <t>主页面界面</t>
   </si>
   <si>
-    <t xml:space="preserve">后台</t>
+    <t>后台</t>
   </si>
   <si>
-    <t xml:space="preserve">登录功能的实现</t>
+    <t>登录功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面的头部功能的实现</t>
+    <t>主页面的头部功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面的中部功能的实现</t>
+    <t>主页面的中部功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">主页面的尾功能的实现</t>
+    <t>主页面的尾功能的实现</t>
   </si>
   <si>
-    <t xml:space="preserve">管理员登录与普通员工登录</t>
+    <t>管理员登录与普通员工登录</t>
   </si>
   <si>
-    <t xml:space="preserve">优化几个模块的功能</t>
+    <t>优化几个模块的功能</t>
   </si>
   <si>
     <r>
@@ -267,7 +272,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
+      <t>！！！编码一定要加注释，否则后期自己改都很麻烦，</t>
     </r>
     <r>
       <rPr>
@@ -277,44 +282,23 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">周末两天要进行优化测试以及一些功能的补充</t>
+      <t>周末两天要进行优化测试以及一些功能的补充</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-804]YYYY\-M\-D"/>
-    <numFmt numFmtId="166" formatCode="[$-804]H:MM"/>
-    <numFmt numFmtId="167" formatCode="0%"/>
-    <numFmt numFmtId="168" formatCode="[$-804]H:MM:SS"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="[$-804]yyyy\-m\-d"/>
+    <numFmt numFmtId="177" formatCode="[$-804]h:mm"/>
+    <numFmt numFmtId="178" formatCode="[$-804]h:mm:ss"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -324,15 +308,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="隶书"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -381,7 +364,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -402,6 +385,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -418,200 +407,464 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="26">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="常规 2" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="1" sqref="G43 G6"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" activeCellId="1" sqref="G43 G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="99.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="99.88671875" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +876,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="28" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -649,23 +902,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -673,23 +926,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -697,21 +950,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43638</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43640</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -719,21 +972,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43638</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43640</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -741,21 +994,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>43639</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>43641</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -765,19 +1018,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>43639</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>0.875</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="7">
         <v>0</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -785,7 +1038,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -799,7 +1052,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -815,7 +1068,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -829,7 +1082,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -843,7 +1096,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -857,7 +1110,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -871,7 +1124,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -885,7 +1138,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -899,7 +1152,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -913,7 +1166,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -927,7 +1180,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -941,7 +1194,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -955,7 +1208,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -969,7 +1222,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -983,7 +1236,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -997,7 +1250,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -1011,7 +1264,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -1025,7 +1278,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1039,7 +1292,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -1053,7 +1306,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -1067,7 +1320,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -1081,7 +1334,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -1095,7 +1348,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -1109,7 +1362,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -1123,23 +1376,23 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>43641</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>43641</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="6">
         <v>0.875</v>
       </c>
-      <c r="F33" s="7" t="n">
+      <c r="F33" s="7">
         <v>1</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -1147,7 +1400,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -1161,7 +1414,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -1175,7 +1428,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -1189,7 +1442,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -1203,7 +1456,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -1217,7 +1470,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -1231,7 +1484,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -1245,7 +1498,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -1259,7 +1512,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -1273,7 +1526,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -1287,7 +1540,7 @@
       </c>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
@@ -1297,7 +1550,7 @@
       <c r="G44" s="17"/>
       <c r="H44" s="18"/>
     </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="13"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -1307,7 +1560,7 @@
       <c r="G45" s="17"/>
       <c r="H45" s="18"/>
     </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="13"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -1317,7 +1570,7 @@
       <c r="G46" s="17"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="13"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -1327,7 +1580,7 @@
       <c r="G47" s="17"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="13"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -1337,7 +1590,7 @@
       <c r="G48" s="17"/>
       <c r="H48" s="18"/>
     </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="13"/>
       <c r="B49" s="14"/>
       <c r="C49" s="15"/>
@@ -1347,7 +1600,7 @@
       <c r="G49" s="17"/>
       <c r="H49" s="18"/>
     </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="13"/>
       <c r="B50" s="14"/>
       <c r="C50" s="15"/>
@@ -1357,7 +1610,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="18"/>
     </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="13"/>
       <c r="B51" s="14"/>
       <c r="C51" s="15"/>
@@ -1367,7 +1620,7 @@
       <c r="G51" s="17"/>
       <c r="H51" s="18"/>
     </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="13"/>
       <c r="B52" s="14"/>
       <c r="C52" s="15"/>
@@ -1381,41 +1634,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="G43 F4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" activeCellId="1" sqref="G43 F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1673,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1453,23 +1699,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -1477,7 +1723,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1493,7 +1739,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -1507,7 +1753,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -1521,7 +1767,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -1535,7 +1781,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -1549,7 +1795,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -1563,7 +1809,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -1577,7 +1823,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -1591,7 +1837,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -1605,7 +1851,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -1619,7 +1865,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -1633,7 +1879,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -1647,7 +1893,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -1661,7 +1907,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -1675,7 +1921,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -1689,7 +1935,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -1703,7 +1949,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -1717,7 +1963,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -1731,7 +1977,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -1745,7 +1991,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -1759,7 +2005,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -1773,7 +2019,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -1787,7 +2033,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -1801,7 +2047,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -1815,7 +2061,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -1829,7 +2075,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -1843,7 +2089,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -1857,7 +2103,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -1871,7 +2117,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -1885,7 +2131,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -1901,7 +2147,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -1915,7 +2161,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -1929,7 +2175,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -1943,7 +2189,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -1957,7 +2203,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -1971,7 +2217,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -1985,7 +2231,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -1999,7 +2245,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -2013,7 +2259,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -2027,7 +2273,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -2045,41 +2291,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G43 C7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="G43 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2330,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2117,23 +2356,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2141,23 +2380,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2165,19 +2404,19 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43639</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>0.9</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2185,21 +2424,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43640</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43640</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="19">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2207,7 +2446,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -2221,7 +2460,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2235,18 +2474,18 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>43641</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>43641</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>0.875</v>
       </c>
       <c r="F9" s="7"/>
@@ -2255,18 +2494,18 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>43641</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>43641</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>0.875</v>
       </c>
       <c r="F10" s="7"/>
@@ -2275,7 +2514,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -2289,7 +2528,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -2303,7 +2542,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -2317,18 +2556,18 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>43641</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>43641</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>0.875</v>
       </c>
       <c r="F14" s="7"/>
@@ -2337,7 +2576,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -2351,7 +2590,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -2365,7 +2604,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -2379,18 +2618,18 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>43641</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>43641</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="6">
         <v>0.875</v>
       </c>
       <c r="F18" s="7"/>
@@ -2399,7 +2638,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -2413,7 +2652,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -2427,7 +2666,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -2441,18 +2680,18 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>43641</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>43641</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="6">
         <v>0.875</v>
       </c>
       <c r="F22" s="7"/>
@@ -2461,7 +2700,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -2475,7 +2714,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -2489,7 +2728,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -2503,7 +2742,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -2517,7 +2756,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -2531,7 +2770,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -2545,7 +2784,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -2559,7 +2798,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -2573,7 +2812,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -2587,18 +2826,18 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="5">
         <v>43641</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="5">
         <v>43641</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="6">
         <v>0.875</v>
       </c>
       <c r="F32" s="7"/>
@@ -2607,20 +2846,20 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>43641</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>43641</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="6">
         <v>0.875</v>
       </c>
       <c r="F33" s="7"/>
@@ -2629,7 +2868,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -2643,7 +2882,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -2657,7 +2896,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -2671,7 +2910,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -2685,7 +2924,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -2699,7 +2938,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -2713,7 +2952,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -2727,7 +2966,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -2741,7 +2980,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -2755,7 +2994,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -2773,41 +3012,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="G43 C7"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" activeCellId="1" sqref="G43 C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +3051,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2845,23 +3077,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -2869,23 +3101,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -2893,19 +3125,19 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43639</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>0.9</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -2913,21 +3145,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43640</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43640</v>
       </c>
-      <c r="E6" s="19" t="n">
+      <c r="E6" s="19">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -2935,7 +3167,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -2949,7 +3181,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -2963,18 +3195,18 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>43641</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>43641</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="6">
         <v>0.875</v>
       </c>
       <c r="F9" s="7"/>
@@ -2983,18 +3215,18 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>43641</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>43641</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>0.875</v>
       </c>
       <c r="F10" s="7"/>
@@ -3003,7 +3235,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -3017,7 +3249,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -3031,7 +3263,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -3045,18 +3277,18 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>43641</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>43641</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="6">
         <v>0.875</v>
       </c>
       <c r="F14" s="7"/>
@@ -3065,7 +3297,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -3079,7 +3311,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -3093,7 +3325,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3107,18 +3339,18 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>43641</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>43641</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="6">
         <v>0.875</v>
       </c>
       <c r="F18" s="7"/>
@@ -3127,7 +3359,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -3141,7 +3373,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -3155,7 +3387,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -3169,18 +3401,18 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>43641</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>43641</v>
       </c>
-      <c r="E22" s="6" t="n">
+      <c r="E22" s="6">
         <v>0.875</v>
       </c>
       <c r="F22" s="7"/>
@@ -3189,7 +3421,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -3203,7 +3435,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -3217,7 +3449,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -3231,7 +3463,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -3245,7 +3477,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -3259,7 +3491,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -3273,7 +3505,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -3287,7 +3519,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -3301,7 +3533,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -3315,18 +3547,18 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="n">
+      <c r="C32" s="5">
         <v>43641</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="5">
         <v>43641</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="6">
         <v>0.875</v>
       </c>
       <c r="F32" s="7"/>
@@ -3335,20 +3567,20 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>43641</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>43641</v>
       </c>
-      <c r="E33" s="6" t="n">
+      <c r="E33" s="6">
         <v>0.875</v>
       </c>
       <c r="F33" s="7"/>
@@ -3357,7 +3589,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -3371,7 +3603,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -3385,7 +3617,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -3399,7 +3631,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -3413,7 +3645,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -3427,7 +3659,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -3441,7 +3673,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -3455,7 +3687,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -3469,7 +3701,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -3483,7 +3715,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -3501,41 +3733,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3547,7 +3772,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3573,23 +3798,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -3597,7 +3822,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3607,13 +3832,13 @@
       <c r="C4" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43640</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -3621,21 +3846,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43640</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43641</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -3643,21 +3868,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43641</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43641</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -3665,21 +3890,21 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>43641</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>43641</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>0.875</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
@@ -3687,7 +3912,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -3701,7 +3926,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -3715,7 +3940,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -3729,7 +3954,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -3743,7 +3968,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -3757,7 +3982,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -3771,7 +3996,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -3785,7 +4010,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -3799,7 +4024,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -3813,7 +4038,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -3827,7 +4052,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -3841,7 +4066,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -3855,7 +4080,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -3869,7 +4094,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -3883,7 +4108,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -3897,7 +4122,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -3911,7 +4136,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -3925,7 +4150,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -3939,7 +4164,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -3953,7 +4178,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -3967,7 +4192,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -3981,7 +4206,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -3995,7 +4220,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -4009,7 +4234,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -4023,7 +4248,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -4037,7 +4262,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -4053,7 +4278,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -4067,7 +4292,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -4081,7 +4306,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -4095,7 +4320,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -4109,7 +4334,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -4123,7 +4348,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -4137,7 +4362,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -4151,7 +4376,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -4165,7 +4390,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -4179,7 +4404,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -4197,41 +4422,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="G43 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="G43 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4243,7 +4461,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4269,23 +4487,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43638</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43638</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -4295,7 +4513,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -4311,21 +4529,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43640</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43641</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -4333,21 +4551,21 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>43641</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>43641</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>0.875</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="7">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
@@ -4355,7 +4573,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -4369,7 +4587,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -4383,7 +4601,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -4397,7 +4615,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -4411,7 +4629,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -4425,7 +4643,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -4439,7 +4657,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -4453,7 +4671,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -4467,7 +4685,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -4481,7 +4699,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -4495,7 +4713,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -4509,7 +4727,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -4523,7 +4741,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -4537,7 +4755,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -4551,7 +4769,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -4565,7 +4783,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -4579,7 +4797,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -4593,7 +4811,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -4607,7 +4825,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -4621,7 +4839,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -4635,7 +4853,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -4649,7 +4867,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -4663,7 +4881,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -4677,7 +4895,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -4691,7 +4909,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -4705,7 +4923,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -4719,7 +4937,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -4735,7 +4953,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -4749,7 +4967,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -4763,7 +4981,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -4777,7 +4995,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -4791,7 +5009,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -4805,7 +5023,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -4819,7 +5037,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -4833,7 +5051,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -4847,7 +5065,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -4861,7 +5079,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -4879,41 +5097,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="G43 D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" activeCellId="1" sqref="G43 D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4925,7 +5136,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4951,23 +5162,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -4975,7 +5186,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -4991,7 +5202,7 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -5005,7 +5216,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -5019,7 +5230,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -5033,7 +5244,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5047,7 +5258,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -5061,7 +5272,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -5075,7 +5286,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -5089,7 +5300,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -5103,7 +5314,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5117,7 +5328,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -5131,7 +5342,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -5145,7 +5356,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -5159,7 +5370,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -5173,7 +5384,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -5187,7 +5398,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -5201,7 +5412,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -5215,7 +5426,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -5229,7 +5440,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -5243,7 +5454,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -5257,7 +5468,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -5271,7 +5482,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -5285,7 +5496,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -5299,7 +5510,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -5313,7 +5524,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -5327,7 +5538,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -5341,7 +5552,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -5355,7 +5566,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -5369,7 +5580,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -5383,7 +5594,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -5399,7 +5610,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -5413,7 +5624,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -5427,7 +5638,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -5441,7 +5652,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -5455,7 +5666,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -5469,7 +5680,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -5483,7 +5694,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -5497,7 +5708,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -5511,7 +5722,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -5525,7 +5736,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -5543,41 +5754,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="G43 G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5589,7 +5793,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -5615,23 +5819,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -5639,23 +5843,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -5663,35 +5867,51 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
+      <c r="C5" s="5">
+        <v>43641</v>
+      </c>
+      <c r="D5" s="5">
+        <v>43641</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="5">
+        <v>43641</v>
+      </c>
+      <c r="D6" s="5">
+        <v>43641</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -5705,7 +5925,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -5719,7 +5939,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -5733,7 +5953,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -5747,7 +5967,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -5761,7 +5981,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -5775,7 +5995,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -5789,7 +6009,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -5803,7 +6023,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -5817,7 +6037,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -5831,7 +6051,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -5845,7 +6065,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -5859,7 +6079,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -5873,7 +6093,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -5887,7 +6107,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -5901,7 +6121,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -5915,7 +6135,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -5929,7 +6149,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -5943,7 +6163,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -5957,7 +6177,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -5971,7 +6191,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -5985,7 +6205,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -5999,7 +6219,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -6013,7 +6233,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -6027,7 +6247,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -6041,7 +6261,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -6055,7 +6275,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -6071,7 +6291,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -6085,7 +6305,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -6099,7 +6319,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -6113,7 +6333,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -6127,7 +6347,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -6141,7 +6361,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -6155,7 +6375,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -6169,7 +6389,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -6183,7 +6403,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -6197,7 +6417,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -6215,41 +6435,34 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="G43 D7"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" activeCellId="1" sqref="G43 D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6261,7 +6474,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6287,23 +6500,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -6311,23 +6524,23 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>43638</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>43638</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="6">
         <v>0.875</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="7">
         <v>0.5</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -6335,21 +6548,21 @@
       </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>43638</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>43640</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="6">
         <v>0.875</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -6357,7 +6570,7 @@
       </c>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -6371,7 +6584,7 @@
       </c>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -6385,7 +6598,7 @@
       </c>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:8" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -6399,7 +6612,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -6413,7 +6626,7 @@
       </c>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -6427,7 +6640,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -6441,7 +6654,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -6455,7 +6668,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -6469,7 +6682,7 @@
       </c>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -6483,7 +6696,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -6497,7 +6710,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -6511,7 +6724,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -6525,7 +6738,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -6539,7 +6752,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -6553,7 +6766,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -6567,7 +6780,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -6581,7 +6794,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -6595,7 +6808,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -6609,7 +6822,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -6623,7 +6836,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -6637,7 +6850,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -6651,7 +6864,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -6665,7 +6878,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -6679,7 +6892,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -6693,7 +6906,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -6707,7 +6920,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -6721,7 +6934,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -6735,7 +6948,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -6751,7 +6964,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -6765,7 +6978,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -6779,7 +6992,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -6793,7 +7006,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -6807,7 +7020,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -6821,7 +7034,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -6835,7 +7048,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -6849,7 +7062,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -6863,7 +7076,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -6877,7 +7090,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -6895,49 +7108,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="1" sqref="G43 F31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" activeCellId="1" sqref="G43 F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="131.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="9" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="27.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="17.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="18.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="21.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="38.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="71.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="9"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="8" max="8" width="131.109375" customWidth="1"/>
+    <col min="9" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="27" customWidth="1"/>
+    <col min="23" max="23" width="17.109375" customWidth="1"/>
+    <col min="24" max="24" width="18.44140625" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" customWidth="1"/>
+    <col min="26" max="26" width="21.88671875" customWidth="1"/>
+    <col min="27" max="27" width="38.109375" customWidth="1"/>
+    <col min="28" max="28" width="71.77734375" customWidth="1"/>
+    <col min="29" max="1025" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:28" ht="32.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6959,7 +7165,7 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:28" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -7009,23 +7215,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:28" ht="15.6">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="5">
         <v>43637</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="5">
         <v>43637</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="6">
         <v>0.875</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
@@ -7038,16 +7244,16 @@
       <c r="V3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="5" t="n">
+      <c r="W3" s="5">
         <v>43592</v>
       </c>
-      <c r="X3" s="5" t="n">
+      <c r="X3" s="5">
         <v>43592</v>
       </c>
       <c r="Y3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="7" t="n">
+      <c r="Z3" s="7">
         <v>1</v>
       </c>
       <c r="AA3" s="8" t="s">
@@ -7057,7 +7263,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:28" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -7079,7 +7285,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="7" t="n">
+      <c r="Z4" s="7">
         <v>0</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -7087,7 +7293,7 @@
       </c>
       <c r="AB4" s="9"/>
     </row>
-    <row r="5" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:28" ht="24">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
@@ -7107,7 +7313,7 @@
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="7" t="n">
+      <c r="Z5" s="7">
         <v>0</v>
       </c>
       <c r="AA5" s="8" t="s">
@@ -7117,7 +7323,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:28" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -7139,7 +7345,7 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="7" t="n">
+      <c r="Z6" s="7">
         <v>0</v>
       </c>
       <c r="AA6" s="8" t="s">
@@ -7149,7 +7355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:28" ht="24">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>16</v>
@@ -7166,16 +7372,16 @@
       <c r="V7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="5" t="n">
+      <c r="W7" s="5">
         <v>43592</v>
       </c>
-      <c r="X7" s="5" t="n">
+      <c r="X7" s="5">
         <v>43592</v>
       </c>
       <c r="Y7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Z7" s="7" t="n">
+      <c r="Z7" s="7">
         <v>1</v>
       </c>
       <c r="AA7" s="8" t="s">
@@ -7183,7 +7389,7 @@
       </c>
       <c r="AB7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:28" ht="24">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -7205,7 +7411,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="7" t="n">
+      <c r="Z8" s="7">
         <v>0</v>
       </c>
       <c r="AA8" s="8" t="s">
@@ -7213,7 +7419,7 @@
       </c>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:28" ht="24">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -7233,7 +7439,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="7" t="n">
+      <c r="Z9" s="7">
         <v>0</v>
       </c>
       <c r="AA9" s="8" t="s">
@@ -7241,7 +7447,7 @@
       </c>
       <c r="AB9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:28" ht="38.25" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>21</v>
@@ -7261,7 +7467,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="7" t="n">
+      <c r="Z10" s="7">
         <v>0</v>
       </c>
       <c r="AA10" s="8" t="s">
@@ -7269,7 +7475,7 @@
       </c>
       <c r="AB10" s="9"/>
     </row>
-    <row r="11" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:28" ht="24">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -7289,7 +7495,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="7" t="n">
+      <c r="Z11" s="7">
         <v>0</v>
       </c>
       <c r="AA11" s="8" t="s">
@@ -7297,7 +7503,7 @@
       </c>
       <c r="AB11" s="9"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:28" ht="15.6">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
@@ -7317,7 +7523,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="7" t="n">
+      <c r="Z12" s="7">
         <v>0</v>
       </c>
       <c r="AA12" s="8" t="s">
@@ -7325,7 +7531,7 @@
       </c>
       <c r="AB12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:28" ht="15.6">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>25</v>
@@ -7347,7 +7553,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="7" t="n">
+      <c r="Z13" s="7">
         <v>0</v>
       </c>
       <c r="AA13" s="8" t="s">
@@ -7357,7 +7563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:28" ht="15.6">
       <c r="A14" s="10"/>
       <c r="B14" s="4" t="s">
         <v>26</v>
@@ -7371,7 +7577,7 @@
       </c>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:28" ht="24">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>27</v>
@@ -7385,7 +7591,7 @@
       </c>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:28" ht="15.6">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
@@ -7399,7 +7605,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
@@ -7413,7 +7619,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>30</v>
@@ -7427,7 +7633,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="24">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>31</v>
@@ -7441,7 +7647,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>32</v>
@@ -7455,7 +7661,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>33</v>
@@ -7469,7 +7675,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>34</v>
@@ -7483,7 +7689,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:8" ht="24">
       <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
         <v>35</v>
@@ -7497,7 +7703,7 @@
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>36</v>
@@ -7511,7 +7717,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>37</v>
@@ -7525,7 +7731,7 @@
       </c>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>38</v>
@@ -7539,7 +7745,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>39</v>
@@ -7553,7 +7759,7 @@
       </c>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="10"/>
       <c r="B28" s="4" t="s">
         <v>40</v>
@@ -7567,7 +7773,7 @@
       </c>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>41</v>
@@ -7581,7 +7787,7 @@
       </c>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>42</v>
@@ -7595,7 +7801,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="10"/>
       <c r="B31" s="4" t="s">
         <v>43</v>
@@ -7609,7 +7815,7 @@
       </c>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="10"/>
       <c r="B32" s="4" t="s">
         <v>44</v>
@@ -7623,7 +7829,7 @@
       </c>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="13" t="s">
         <v>45</v>
       </c>
@@ -7639,7 +7845,7 @@
       </c>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>47</v>
@@ -7653,7 +7859,7 @@
       </c>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="24">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>48</v>
@@ -7667,7 +7873,7 @@
       </c>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" ht="24">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -7681,7 +7887,7 @@
       </c>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="24">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>50</v>
@@ -7695,7 +7901,7 @@
       </c>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="24">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>51</v>
@@ -7709,7 +7915,7 @@
       </c>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" ht="24">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>52</v>
@@ -7723,7 +7929,7 @@
       </c>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="24">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>53</v>
@@ -7737,7 +7943,7 @@
       </c>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="24">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>54</v>
@@ -7751,7 +7957,7 @@
       </c>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="24">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>51</v>
@@ -7765,7 +7971,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
@@ -7784,12 +7990,8 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="U1:AB1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>